--- a/testResults/compiled_testResult-az.xlsx
+++ b/testResults/compiled_testResult-az.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\work\RnD\gRPCvsREST\testResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9FBF8A-7978-43F2-8C8C-4B6F723F8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB81668-C421-46A7-B62C-5DE7A375F3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2998,6 +2998,1272 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Single</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Thread - Client and Server CPU Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GRPC Server</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D07F-46E3-8504-923B59D044AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GRPC Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D07F-46E3-8504-923B59D044AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>REST Server</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$S$3:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D07F-46E3-8504-923B59D044AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>REST Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D07F-46E3-8504-923B59D044AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="594747048"/>
+        <c:axId val="594749344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="594747048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594749344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594749344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594747048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Threads - Client and Server CPU Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GRPC Server</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$16:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$I$16:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5589-4B65-B5F3-332D5050035E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GRPC Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$16:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$K$16:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5589-4B65-B5F3-332D5050035E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>REST Server</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$16:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$S$16:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>521611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5589-4B65-B5F3-332D5050035E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>REST Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TestResult-az'!$A$16:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>getEmployeeByID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>createEmployee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createEmployeesList-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>createEmployeesList-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>getEmployeesList-1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>createEmployeesList-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TestResult-az'!$U$16:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>561845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5589-4B65-B5F3-332D5050035E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="103092776"/>
+        <c:axId val="103089824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="103092776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103089824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103089824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103092776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>GRPC (List &amp; Streaming) vs REST</a:t>
             </a:r>
             <a:r>
@@ -3676,7 +4942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4429,6 +5695,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26010930450361275"/>
+          <c:y val="1.7540011136295785E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8323,6 +9597,86 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -8359,7 +9713,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -11734,6 +13088,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15798,16 +18158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>496729</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>159066</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>50481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>578168</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105728</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15870,16 +18230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>511492</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>8095</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286702</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>50005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>405289</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>468154</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>49053</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16194,6 +18554,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89533</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C99113-AC10-3413-230F-51092EBCE4BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FDA359-0689-3548-F308-D8441D3EA207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16575,7 +19007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF95" sqref="AF95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/testResults/compiled_testResult-az.xlsx
+++ b/testResults/compiled_testResult-az.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\work\RnD\gRPCvsREST\testResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB81668-C421-46A7-B62C-5DE7A375F3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA07C6-7CDC-4570-A15D-CEFBCBB90BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
   <si>
     <t>getEmployeeByID</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>avg client cpu %</t>
+  </si>
+  <si>
+    <t>server time diff</t>
+  </si>
+  <si>
+    <t>client time diff</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -759,6 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18346,7 +18353,7 @@
       <xdr:rowOff>8097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>330993</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>172404</xdr:rowOff>
@@ -18382,7 +18389,7 @@
       <xdr:rowOff>25717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>339090</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -18562,7 +18569,7 @@
       <xdr:rowOff>20002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
@@ -18598,7 +18605,7 @@
       <xdr:rowOff>37147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>598170</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -19005,10 +19012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV27"/>
+  <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF95" sqref="AF95"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19034,47 +19041,47 @@
     <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -19094,8 +19101,10 @@
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:48" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -19173,21 +19182,25 @@
       <c r="AA2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -19202,8 +19215,10 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -19285,24 +19300,30 @@
         <f>(Q3-G3) / Q3</f>
         <v>-5.9295748950921365E-2</v>
       </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="7">
+      <c r="AB3" s="9">
+        <f xml:space="preserve"> (S3-I3)/S3</f>
+        <v>-0.33711925658234382</v>
+      </c>
+      <c r="AC3" s="9">
+        <f>(U3-K3)/U3</f>
+        <v>-0.95392368610511158</v>
+      </c>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="7">
         <v>1</v>
       </c>
-      <c r="AD3" s="7">
-        <f>(AC3 * C3 * 0.13) / 1000</f>
+      <c r="AF3" s="7">
+        <f>(AE3 * C3 * 0.13) / 1000</f>
         <v>1.3</v>
       </c>
-      <c r="AE3" s="7">
-        <f xml:space="preserve"> (AC3 * C3 * 0.31) / 1000</f>
+      <c r="AG3" s="7">
+        <f xml:space="preserve"> (AE3 * C3 * 0.31) / 1000</f>
         <v>3.1</v>
       </c>
-      <c r="AF3" s="7">
-        <f>AE3-AD3</f>
+      <c r="AH3" s="7">
+        <f>AG3-AF3</f>
         <v>1.8</v>
       </c>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
@@ -19317,8 +19338,10 @@
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -19400,24 +19423,30 @@
         <f t="shared" ref="AA4:AA23" si="2">(Q4-G4) / Q4</f>
         <v>0.28368290081763242</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="10">
+      <c r="AB4" s="9">
+        <f t="shared" ref="AB4:AB23" si="3" xml:space="preserve"> (S4-I4)/S4</f>
+        <v>-9.1335894152795555E-2</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" ref="AC4:AC23" si="4">(U4-K4)/U4</f>
+        <v>-0.15</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="10">
         <v>1</v>
       </c>
-      <c r="AD4" s="10">
-        <f t="shared" ref="AD4:AD14" si="3">(AC4 * C4 * 0.13) / 1000</f>
+      <c r="AF4" s="10">
+        <f t="shared" ref="AF4:AF14" si="5">(AE4 * C4 * 0.13) / 1000</f>
         <v>1.3</v>
       </c>
-      <c r="AE4" s="10">
-        <f t="shared" ref="AE4:AE14" si="4" xml:space="preserve"> (AC4 * C4 * 0.31) / 1000</f>
+      <c r="AG4" s="10">
+        <f t="shared" ref="AG4:AG14" si="6" xml:space="preserve"> (AE4 * C4 * 0.31) / 1000</f>
         <v>3.1</v>
       </c>
-      <c r="AF4" s="10">
-        <f t="shared" ref="AF4:AF14" si="5">AE4-AD4</f>
+      <c r="AH4" s="10">
+        <f t="shared" ref="AH4:AH14" si="7">AG4-AF4</f>
         <v>1.8</v>
       </c>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
@@ -19432,8 +19461,10 @@
       <c r="AT4" s="10"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
     </row>
-    <row r="5" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -19515,24 +19546,30 @@
         <f t="shared" si="2"/>
         <v>0.20829277788592565</v>
       </c>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="7">
+      <c r="AB5" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.18354978354978355</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.35991091314031182</v>
+      </c>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="7">
         <v>10</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="4"/>
-        <v>31</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="7">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
@@ -19547,8 +19584,10 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -19623,31 +19662,37 @@
         <v>0.48447204968944108</v>
       </c>
       <c r="Z6" s="11">
-        <f t="shared" ref="Z6:Z23" si="6" xml:space="preserve"> (H6-R6) / R6</f>
+        <f t="shared" ref="Z6:Z23" si="8" xml:space="preserve"> (H6-R6) / R6</f>
         <v>0.21189591078066913</v>
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="2"/>
         <v>0.17479751365605575</v>
       </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="10">
+      <c r="AB6" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.8522437066763957E-2</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.50050200803212852</v>
+      </c>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="10">
         <v>10</v>
-      </c>
-      <c r="AD6" s="10">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="AE6" s="10">
-        <f t="shared" si="4"/>
-        <v>31</v>
       </c>
       <c r="AF6" s="10">
         <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AG6" s="10">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AH6" s="10">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
@@ -19662,8 +19707,10 @@
       <c r="AT6" s="10"/>
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
     </row>
-    <row r="7" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -19738,31 +19785,37 @@
         <v>0.47906976744186042</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37522281639928701</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="2"/>
         <v>0.2728088878913702</v>
       </c>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="7">
+      <c r="AB7" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2990137118114024E-2</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="4"/>
+        <v>4.0427807486631016E-2</v>
+      </c>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="7">
         <v>100</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="AE7" s="7">
-        <f t="shared" si="4"/>
-        <v>310</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
@@ -19777,8 +19830,10 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -19853,31 +19908,37 @@
         <v>0.49090909090909091</v>
       </c>
       <c r="Z8" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.52111225540679706</v>
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="2"/>
         <v>0.34256021756021754</v>
       </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="10">
+      <c r="AB8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.26782515227517018</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.11227087576374746</v>
+      </c>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="10">
         <v>100</v>
-      </c>
-      <c r="AD8" s="10">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="AE8" s="10">
-        <f t="shared" si="4"/>
-        <v>310</v>
       </c>
       <c r="AF8" s="10">
         <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="AG8" s="10">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="AH8" s="10">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
@@ -19892,8 +19953,10 @@
       <c r="AT8" s="10"/>
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
     </row>
-    <row r="9" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -19968,31 +20031,37 @@
         <v>0.2260397830018083</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="2"/>
         <v>0.14193637621023514</v>
       </c>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="7">
+      <c r="AB9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.29098199886675674</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="4"/>
+        <v>0.43012722307333645</v>
+      </c>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="7">
         <v>1000</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="AE9" s="7">
-        <f t="shared" si="4"/>
-        <v>3100</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" si="6"/>
+        <v>3100</v>
+      </c>
+      <c r="AH9" s="7">
+        <f t="shared" si="7"/>
         <v>1800</v>
       </c>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
@@ -20007,8 +20076,10 @@
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -20083,31 +20154,37 @@
         <v>0.37808219178082192</v>
       </c>
       <c r="Z10" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.75806451612903225</v>
       </c>
       <c r="AA10" s="12">
         <f t="shared" si="2"/>
         <v>0.43180251513740103</v>
       </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="10">
+      <c r="AB10" s="9">
+        <f t="shared" si="3"/>
+        <v>0.45237559831668217</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.28633612469944447</v>
+      </c>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="10">
         <v>1000</v>
-      </c>
-      <c r="AD10" s="10">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="AE10" s="10">
-        <f t="shared" si="4"/>
-        <v>3100</v>
       </c>
       <c r="AF10" s="10">
         <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+      <c r="AG10" s="10">
+        <f t="shared" si="6"/>
+        <v>3100</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" si="7"/>
         <v>1800</v>
       </c>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -20122,8 +20199,10 @@
       <c r="AT10" s="10"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
     </row>
-    <row r="11" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -20176,23 +20255,23 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="7">
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="7">
         <v>100</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="AE11" s="7">
-        <f t="shared" si="4"/>
-        <v>31</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AH11" s="7">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
@@ -20207,8 +20286,10 @@
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -20260,24 +20341,24 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10">
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="10">
         <v>100</v>
-      </c>
-      <c r="AD12" s="10">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="AE12" s="10">
-        <f t="shared" si="4"/>
-        <v>31</v>
       </c>
       <c r="AF12" s="10">
         <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AG12" s="10">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AH12" s="10">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -20292,8 +20373,10 @@
       <c r="AT12" s="10"/>
       <c r="AU12" s="10"/>
       <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
     </row>
-    <row r="13" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -20346,23 +20429,23 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="7">
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="7">
         <v>1000</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="4"/>
-        <v>310</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="AH13" s="7">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
@@ -20377,8 +20460,10 @@
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -20430,24 +20515,24 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10">
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="10">
         <v>1000</v>
-      </c>
-      <c r="AD14" s="10">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="AE14" s="10">
-        <f t="shared" si="4"/>
-        <v>310</v>
       </c>
       <c r="AF14" s="10">
         <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="AG14" s="10">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="AH14" s="10">
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -20462,8 +20547,10 @@
       <c r="AT14" s="10"/>
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -20491,9 +20578,9 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="12"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
@@ -20512,8 +20599,10 @@
       <c r="AT15" s="10"/>
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
     </row>
-    <row r="16" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -20588,16 +20677,22 @@
         <v>0.3546617915904936</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.6396139072195412E-2</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="2"/>
         <v>-2.7109351203167834E-2</v>
       </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="AB16" s="9">
+        <f t="shared" si="3"/>
+        <v>0.30106175786894518</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="4"/>
+        <v>0.32469119636855659</v>
+      </c>
+      <c r="AD16" s="9"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
@@ -20616,8 +20711,10 @@
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -20692,16 +20789,22 @@
         <v>0.68496420047732698</v>
       </c>
       <c r="Z17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42639593908629442</v>
       </c>
       <c r="AA17" s="12">
         <f t="shared" si="2"/>
         <v>0.2989558707643814</v>
       </c>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
+      <c r="AB17" s="9">
+        <f t="shared" si="3"/>
+        <v>0.47576829436354451</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="4"/>
+        <v>0.48980115458627327</v>
+      </c>
+      <c r="AD17" s="17"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
@@ -20720,8 +20823,10 @@
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
     </row>
-    <row r="18" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -20796,16 +20901,22 @@
         <v>0.53597122302158273</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23687994248741912</v>
       </c>
       <c r="AA18" s="9">
         <f t="shared" si="2"/>
         <v>0.19152014244380147</v>
       </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
+      <c r="AB18" s="9">
+        <f t="shared" si="3"/>
+        <v>0.34403328875018574</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="4"/>
+        <v>0.38288383052131109</v>
+      </c>
+      <c r="AD18" s="9"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -20824,8 +20935,10 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
@@ -20900,16 +21013,22 @@
         <v>0.48717948717948717</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.45798689230167272</v>
       </c>
       <c r="AA19" s="12">
         <f t="shared" si="2"/>
         <v>0.31407831510070544</v>
       </c>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
+      <c r="AB19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.48367160079352967</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.38707959889963617</v>
+      </c>
+      <c r="AD19" s="17"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
@@ -20928,8 +21047,10 @@
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
     </row>
-    <row r="20" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -21004,16 +21125,22 @@
         <v>0.5</v>
       </c>
       <c r="Z20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.72371012209531316</v>
       </c>
       <c r="AA20" s="9">
         <f t="shared" si="2"/>
         <v>0.41983647351581943</v>
       </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
+      <c r="AB20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.34464927584974669</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.48451238434572724</v>
+      </c>
+      <c r="AD20" s="9"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -21032,8 +21159,10 @@
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>5</v>
       </c>
@@ -21108,16 +21237,22 @@
         <v>0.57213930348258712</v>
       </c>
       <c r="Z21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.81476655808903364</v>
       </c>
       <c r="AA21" s="12">
         <f t="shared" si="2"/>
         <v>0.44890157969879796</v>
       </c>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
+      <c r="AB21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.51143604915794261</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.30439829208639058</v>
+      </c>
+      <c r="AD21" s="17"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
@@ -21136,8 +21271,10 @@
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
     </row>
-    <row r="22" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -21212,16 +21349,22 @@
         <v>0.54383063182269276</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0878962536023056</v>
       </c>
       <c r="AA22" s="9">
         <f t="shared" si="2"/>
         <v>0.52076504250236122</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
+      <c r="AB22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.36706721478514459</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.62183698350968686</v>
+      </c>
+      <c r="AD22" s="9"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -21240,8 +21383,10 @@
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
@@ -21316,16 +21461,22 @@
         <v>0.50204466813463355</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.95634379263301506</v>
       </c>
       <c r="AA23" s="12">
         <f t="shared" si="2"/>
         <v>0.48880137287688108</v>
       </c>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
+      <c r="AB23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5998071359691417</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.39136450628459113</v>
+      </c>
+      <c r="AD23" s="17"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
@@ -21344,8 +21495,10 @@
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
       <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
     </row>
-    <row r="24" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -21418,8 +21571,10 @@
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
@@ -21492,8 +21647,10 @@
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
       <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
     </row>
-    <row r="26" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -21566,8 +21723,10 @@
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -21640,6 +21799,8 @@
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
       <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21951,36 +22112,36 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
